--- a/201025_Results_Cali/output/summary/merged_mod3.xlsx
+++ b/201025_Results_Cali/output/summary/merged_mod3.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH185"/>
+  <dimension ref="A1:AH194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -24547,53 +24547,53 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>73 (36.5%)</t>
+          <t>74 (34.9%)</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>93 (48.4%)</t>
+          <t>94 (42.5%)</t>
         </is>
       </c>
       <c r="F152">
-        <v>0.0016</v>
+        <v>0.0004</v>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>50 (58.8%)</t>
+          <t>51 (56.7%)</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>55 (39.6%)</t>
+          <t>56 (35.9%)</t>
         </is>
       </c>
       <c r="I152" t="inlineStr">
         <is>
-          <t>61 (36.3%)</t>
+          <t>61 (32.6%)</t>
         </is>
       </c>
       <c r="J152">
-        <v>0.0708</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>55 (78.6%)</t>
+          <t>55 (76.4%)</t>
         </is>
       </c>
       <c r="L152" t="inlineStr">
         <is>
-          <t>9 (23.1%)</t>
+          <t>9 (18.4%)</t>
         </is>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>29 (22.1%)</t>
+          <t>30 (22.1%)</t>
         </is>
       </c>
       <c r="N152" t="inlineStr">
         <is>
-          <t>37 (71.2%)</t>
+          <t>37 (56.1%)</t>
         </is>
       </c>
       <c r="O152" t="inlineStr">
@@ -24603,7 +24603,7 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>35 (37.6%)</t>
+          <t>36 (35.0%)</t>
         </is>
       </c>
       <c r="Q152">
@@ -24611,12 +24611,12 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>18 (29.0%)</t>
+          <t>18 (22.2%)</t>
         </is>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>75 (41.4%)</t>
+          <t>76 (38.8%)</t>
         </is>
       </c>
       <c r="T152" t="inlineStr">
@@ -24626,12 +24626,12 @@
       </c>
       <c r="U152" t="inlineStr">
         <is>
-          <t>40 (70.2%)</t>
+          <t>40 (69.0%)</t>
         </is>
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>33 (36.3%)</t>
+          <t>34 (35.1%)</t>
         </is>
       </c>
       <c r="W152">
@@ -24639,45 +24639,45 @@
       </c>
       <c r="X152" t="inlineStr">
         <is>
-          <t>19 (41.3%)</t>
+          <t>19 (35.2%)</t>
         </is>
       </c>
       <c r="Y152" t="inlineStr">
         <is>
-          <t>8 (50.0%)</t>
+          <t>8 (47.1%)</t>
         </is>
       </c>
       <c r="Z152" t="inlineStr">
         <is>
-          <t>116 (41.1%)</t>
+          <t>118 (39.2%)</t>
         </is>
       </c>
       <c r="AA152" t="inlineStr">
         <is>
-          <t>6 (50.0%)</t>
+          <t>6 (46.2%)</t>
         </is>
       </c>
       <c r="AB152" t="inlineStr">
         <is>
-          <t>17 (47.2%)</t>
+          <t>17 (35.4%)</t>
         </is>
       </c>
       <c r="AC152">
-        <v>0.0594</v>
+        <v>0.0008</v>
       </c>
       <c r="AD152" t="inlineStr">
         <is>
-          <t>50 (39.1%)</t>
+          <t>51 (37.5%)</t>
         </is>
       </c>
       <c r="AE152" t="inlineStr">
         <is>
-          <t>68 (45.9%)</t>
+          <t>69 (44.2%)</t>
         </is>
       </c>
       <c r="AF152" t="inlineStr">
         <is>
-          <t>48 (41.4%)</t>
+          <t>48 (34.0%)</t>
         </is>
       </c>
       <c r="AG152">
@@ -24707,48 +24707,48 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>22 (11.0%)</t>
+          <t>22 (10.4%)</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F153">
-        <v>0.0016</v>
+        <v>0.0004</v>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>4 (4.7%)</t>
+          <t>4 (4.4%)</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>7 (5.0%)</t>
+          <t>7 (4.5%)</t>
         </is>
       </c>
       <c r="I153" t="inlineStr">
         <is>
-          <t>14 (8.3%)</t>
+          <t>14 (7.5%)</t>
         </is>
       </c>
       <c r="J153">
-        <v>0.0708</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>2 (2.9%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="L153" t="inlineStr">
         <is>
-          <t>19 (48.7%)</t>
+          <t>19 (38.8%)</t>
         </is>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>3 (2.3%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="N153" t="inlineStr">
@@ -24763,7 +24763,7 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>1 (1.1%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="Q153">
@@ -24771,12 +24771,12 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>9 (14.5%)</t>
+          <t>9 (11.1%)</t>
         </is>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>7 (3.9%)</t>
+          <t>7 (3.6%)</t>
         </is>
       </c>
       <c r="T153" t="inlineStr">
@@ -24786,12 +24786,12 @@
       </c>
       <c r="U153" t="inlineStr">
         <is>
-          <t>3 (5.3%)</t>
+          <t>3 (5.2%)</t>
         </is>
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>5 (5.5%)</t>
+          <t>5 (5.2%)</t>
         </is>
       </c>
       <c r="W153">
@@ -24799,7 +24799,7 @@
       </c>
       <c r="X153" t="inlineStr">
         <is>
-          <t>3 (6.5%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="Y153" t="inlineStr">
@@ -24809,35 +24809,35 @@
       </c>
       <c r="Z153" t="inlineStr">
         <is>
-          <t>19 (6.7%)</t>
+          <t>19 (6.3%)</t>
         </is>
       </c>
       <c r="AA153" t="inlineStr">
         <is>
-          <t>2 (16.7%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB153" t="inlineStr">
         <is>
-          <t>1 (2.8%)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="AC153">
-        <v>0.0594</v>
+        <v>0.0008</v>
       </c>
       <c r="AD153" t="inlineStr">
         <is>
-          <t>4 (3.1%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="AE153" t="inlineStr">
         <is>
-          <t>5 (3.4%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="AF153" t="inlineStr">
         <is>
-          <t>16 (13.8%)</t>
+          <t>16 (11.3%)</t>
         </is>
       </c>
       <c r="AG153">
@@ -24862,68 +24862,68 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Caminar</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>77 (38.5%)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>68 (35.4%)</t>
+          <t>9 (4.1%)</t>
         </is>
       </c>
       <c r="F154">
-        <v>0.0016</v>
+        <v>0.0004</v>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>20 (23.5%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>57 (41.0%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="I154" t="inlineStr">
         <is>
-          <t>68 (40.5%)</t>
+          <t>6 (3.2%)</t>
         </is>
       </c>
       <c r="J154">
-        <v>0.0708</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
-          <t>5 (7.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="L154" t="inlineStr">
         <is>
-          <t>10 (25.6%)</t>
+          <t>8 (16.3%)</t>
         </is>
       </c>
       <c r="M154" t="inlineStr">
         <is>
-          <t>96 (73.3%)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="N154" t="inlineStr">
         <is>
-          <t>11 (21.2%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>4 (57.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>19 (20.4%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="Q154">
@@ -24931,12 +24931,12 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>16 (25.8%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S154" t="inlineStr">
         <is>
-          <t>76 (42.0%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="T154" t="inlineStr">
@@ -24946,12 +24946,12 @@
       </c>
       <c r="U154" t="inlineStr">
         <is>
-          <t>10 (17.5%)</t>
+          <t>1 (1.7%)</t>
         </is>
       </c>
       <c r="V154" t="inlineStr">
         <is>
-          <t>43 (47.3%)</t>
+          <t>3 (3.1%)</t>
         </is>
       </c>
       <c r="W154">
@@ -24959,45 +24959,45 @@
       </c>
       <c r="X154" t="inlineStr">
         <is>
-          <t>13 (28.3%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y154" t="inlineStr">
         <is>
-          <t>7 (43.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z154" t="inlineStr">
         <is>
-          <t>115 (40.8%)</t>
+          <t>6 (2.0%)</t>
         </is>
       </c>
       <c r="AA154" t="inlineStr">
         <is>
-          <t>2 (16.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB154" t="inlineStr">
         <is>
-          <t>8 (22.2%)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="AC154">
-        <v>0.0594</v>
+        <v>0.0008</v>
       </c>
       <c r="AD154" t="inlineStr">
         <is>
-          <t>68 (53.1%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="AE154" t="inlineStr">
         <is>
-          <t>57 (38.5%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="AF154" t="inlineStr">
         <is>
-          <t>20 (17.2%)</t>
+          <t>7 (5.0%)</t>
         </is>
       </c>
       <c r="AG154">
@@ -25022,68 +25022,68 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>2 (1.0%)</t>
+          <t>77 (36.3%)</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>3 (1.6%)</t>
+          <t>68 (30.8%)</t>
         </is>
       </c>
       <c r="F155">
-        <v>0.0016</v>
+        <v>0.0004</v>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>1 (1.2%)</t>
+          <t>20 (22.2%)</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>2 (1.4%)</t>
+          <t>57 (36.5%)</t>
         </is>
       </c>
       <c r="I155" t="inlineStr">
         <is>
-          <t>2 (1.2%)</t>
+          <t>68 (36.4%)</t>
         </is>
       </c>
       <c r="J155">
-        <v>0.0708</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
-          <t>2 (2.9%)</t>
+          <t>5 (6.9%)</t>
         </is>
       </c>
       <c r="L155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (20.4%)</t>
         </is>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>1 (0.8%)</t>
+          <t>96 (70.6%)</t>
         </is>
       </c>
       <c r="N155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>11 (16.7%)</t>
         </is>
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>4 (57.1%)</t>
         </is>
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>2 (2.2%)</t>
+          <t>19 (18.4%)</t>
         </is>
       </c>
       <c r="Q155">
@@ -25091,12 +25091,12 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>1 (1.6%)</t>
+          <t>16 (19.8%)</t>
         </is>
       </c>
       <c r="S155" t="inlineStr">
         <is>
-          <t>1 (0.6%)</t>
+          <t>76 (38.8%)</t>
         </is>
       </c>
       <c r="T155" t="inlineStr">
@@ -25106,12 +25106,12 @@
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>10 (17.2%)</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>2 (2.2%)</t>
+          <t>43 (44.3%)</t>
         </is>
       </c>
       <c r="W155">
@@ -25119,45 +25119,45 @@
       </c>
       <c r="X155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>13 (24.1%)</t>
         </is>
       </c>
       <c r="Y155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (41.2%)</t>
         </is>
       </c>
       <c r="Z155" t="inlineStr">
         <is>
-          <t>5 (1.8%)</t>
+          <t>115 (38.2%)</t>
         </is>
       </c>
       <c r="AA155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (16.7%)</t>
         </is>
       </c>
       <c r="AC155">
-        <v>0.0594</v>
+        <v>0.0008</v>
       </c>
       <c r="AD155" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>68 (50.0%)</t>
         </is>
       </c>
       <c r="AE155" t="inlineStr">
         <is>
-          <t>1 (0.7%)</t>
+          <t>57 (36.5%)</t>
         </is>
       </c>
       <c r="AF155" t="inlineStr">
         <is>
-          <t>4 (3.4%)</t>
+          <t>20 (14.2%)</t>
         </is>
       </c>
       <c r="AG155">
@@ -25182,48 +25182,48 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otro</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>26 (13.0%)</t>
+          <t>2 (0.9%)</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>25 (13.0%)</t>
+          <t>4 (1.8%)</t>
         </is>
       </c>
       <c r="F156">
-        <v>0.0016</v>
+        <v>0.0004</v>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>10 (11.8%)</t>
+          <t>1 (1.1%)</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>18 (12.9%)</t>
+          <t>3 (1.9%)</t>
         </is>
       </c>
       <c r="I156" t="inlineStr">
         <is>
-          <t>23 (13.7%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="J156">
-        <v>0.0708</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>6 (8.6%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="L156" t="inlineStr">
         <is>
-          <t>1 (2.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M156" t="inlineStr">
@@ -25233,17 +25233,17 @@
       </c>
       <c r="N156" t="inlineStr">
         <is>
-          <t>4 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>2 (28.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>36 (38.7%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="Q156">
@@ -25251,12 +25251,12 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>18 (29.0%)</t>
+          <t>1 (1.2%)</t>
         </is>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>22 (12.2%)</t>
+          <t>2 (1.0%)</t>
         </is>
       </c>
       <c r="T156" t="inlineStr">
@@ -25266,12 +25266,12 @@
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>3 (5.3%)</t>
+          <t>1 (1.7%)</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>8 (8.8%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="W156">
@@ -25279,45 +25279,45 @@
       </c>
       <c r="X156" t="inlineStr">
         <is>
-          <t>11 (23.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Y156" t="inlineStr">
         <is>
-          <t>1 (6.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z156" t="inlineStr">
         <is>
-          <t>27 (9.6%)</t>
+          <t>6 (2.0%)</t>
         </is>
       </c>
       <c r="AA156" t="inlineStr">
         <is>
-          <t>2 (16.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB156" t="inlineStr">
         <is>
-          <t>10 (27.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC156">
-        <v>0.0594</v>
+        <v>0.0008</v>
       </c>
       <c r="AD156" t="inlineStr">
         <is>
-          <t>6 (4.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AE156" t="inlineStr">
         <is>
-          <t>17 (11.5%)</t>
+          <t>1 (0.6%)</t>
         </is>
       </c>
       <c r="AF156" t="inlineStr">
         <is>
-          <t>28 (24.1%)</t>
+          <t>5 (3.5%)</t>
         </is>
       </c>
       <c r="AG156">
@@ -25332,68 +25332,68 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Condiciones físicas / salud</t>
+          <t>Taxi</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>4 (6.7%)</t>
+          <t>8 (3.8%)</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>5 (6.0%)</t>
+          <t>18 (8.1%)</t>
         </is>
       </c>
       <c r="F157">
-        <v>0.483</v>
+        <v>0.0004</v>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>2 (6.9%)</t>
+          <t>3 (3.3%)</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>4 (7.5%)</t>
+          <t>10 (6.4%)</t>
         </is>
       </c>
       <c r="I157" t="inlineStr">
         <is>
-          <t>3 (4.9%)</t>
+          <t>13 (7.0%)</t>
         </is>
       </c>
       <c r="J157">
-        <v>0.4611</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>1 (9.1%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
         <is>
-          <t>3 (15.8%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>2 (5.7%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="N157" t="inlineStr">
         <is>
-          <t>2 (8.7%)</t>
+          <t>13 (19.7%)</t>
         </is>
       </c>
       <c r="O157" t="inlineStr">
@@ -25403,25 +25403,25 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>1 (2.0%)</t>
+          <t>7 (6.8%)</t>
         </is>
       </c>
       <c r="Q157">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>3 (11.1%)</t>
+          <t>16 (19.8%)</t>
         </is>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>4 (5.4%)</t>
+          <t>8 (4.1%)</t>
         </is>
       </c>
       <c r="T157" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U157" t="inlineStr">
@@ -25431,57 +25431,57 @@
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>2 (6.9%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="W157">
-        <v>0.0376</v>
+        <v>0</v>
       </c>
       <c r="X157" t="inlineStr">
         <is>
-          <t>3 (15.0%)</t>
+          <t>7 (13.0%)</t>
         </is>
       </c>
       <c r="Y157" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z157" t="inlineStr">
         <is>
-          <t>3 (3.1%)</t>
+          <t>10 (3.3%)</t>
         </is>
       </c>
       <c r="AA157" t="inlineStr">
         <is>
-          <t>1 (25.0%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB157" t="inlineStr">
         <is>
-          <t>2 (16.7%)</t>
+          <t>7 (14.6%)</t>
         </is>
       </c>
       <c r="AC157">
-        <v>0.1706</v>
+        <v>0.0008</v>
       </c>
       <c r="AD157" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="AE157" t="inlineStr">
         <is>
-          <t>4 (7.1%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="AF157" t="inlineStr">
         <is>
-          <t>5 (11.6%)</t>
+          <t>17 (12.1%)</t>
         </is>
       </c>
       <c r="AG157">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="AH157" t="inlineStr">
         <is>
@@ -25492,156 +25492,156 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>p30_razon_no_uso_agregado</t>
+          <t>p29_modo_ideal_agregado</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Razón para no usar el modo ideal (agregada)</t>
+          <t>Modo ideal o soñado de movilizarse (agregado)</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Inseguridad / acoso</t>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>8 (13.3%)</t>
+          <t>26 (12.3%)</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>8 (9.6%)</t>
+          <t>25 (11.3%)</t>
         </is>
       </c>
       <c r="F158">
-        <v>0.483</v>
+        <v>0.0004</v>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>4 (13.8%)</t>
+          <t>10 (11.1%)</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>4 (7.5%)</t>
+          <t>18 (11.5%)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
         <is>
-          <t>8 (13.1%)</t>
+          <t>23 (12.3%)</t>
         </is>
       </c>
       <c r="J158">
-        <v>0.4611</v>
+        <v>0.09660000000000001</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>2 (18.2%)</t>
+          <t>6 (8.3%)</t>
         </is>
       </c>
       <c r="L158" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>4 (11.4%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>5 (21.7%)</t>
+          <t>4 (6.1%)</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>2 (50.0%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>3 (5.9%)</t>
+          <t>36 (35.0%)</t>
         </is>
       </c>
       <c r="Q158">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>6 (22.2%)</t>
+          <t>18 (22.2%)</t>
         </is>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>7 (9.5%)</t>
+          <t>22 (11.2%)</t>
         </is>
       </c>
       <c r="T158" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>3 (5.2%)</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>2 (6.9%)</t>
+          <t>8 (8.2%)</t>
         </is>
       </c>
       <c r="W158">
-        <v>0.0376</v>
+        <v>0</v>
       </c>
       <c r="X158" t="inlineStr">
         <is>
-          <t>1 (5.0%)</t>
+          <t>11 (20.4%)</t>
         </is>
       </c>
       <c r="Y158" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z158" t="inlineStr">
         <is>
-          <t>14 (14.4%)</t>
+          <t>27 (9.0%)</t>
         </is>
       </c>
       <c r="AA158" t="inlineStr">
         <is>
-          <t>1 (25.0%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB158" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>10 (20.8%)</t>
         </is>
       </c>
       <c r="AC158">
-        <v>0.1706</v>
+        <v>0.0008</v>
       </c>
       <c r="AD158" t="inlineStr">
         <is>
-          <t>4 (9.1%)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="AE158" t="inlineStr">
         <is>
-          <t>6 (10.7%)</t>
+          <t>17 (10.9%)</t>
         </is>
       </c>
       <c r="AF158" t="inlineStr">
         <is>
-          <t>6 (14.0%)</t>
+          <t>28 (19.9%)</t>
         </is>
       </c>
       <c r="AG158">
-        <v>0.369</v>
+        <v>0</v>
       </c>
       <c r="AH158" t="inlineStr">
         <is>
@@ -25662,146 +25662,146 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Limitaciones económicas</t>
+          <t>Condiciones físicas / salud</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>38 (63.3%)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>62 (74.7%)</t>
+          <t>5 (2.3%)</t>
         </is>
       </c>
       <c r="F159">
-        <v>0.483</v>
+        <v>0.286</v>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>17 (58.6%)</t>
+          <t>2 (2.2%)</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>37 (69.8%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
         <is>
-          <t>46 (75.4%)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="J159">
-        <v>0.4611</v>
+        <v>0.301</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>6 (54.5%)</t>
+          <t>1 (1.4%)</t>
         </is>
       </c>
       <c r="L159" t="inlineStr">
         <is>
-          <t>13 (68.4%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>22 (62.9%)</t>
+          <t>2 (1.5%)</t>
         </is>
       </c>
       <c r="N159" t="inlineStr">
         <is>
-          <t>13 (56.5%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>1 (25.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>45 (88.2%)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="Q159">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>16 (59.3%)</t>
+          <t>3 (3.7%)</t>
         </is>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>57 (77.0%)</t>
+          <t>4 (2.0%)</t>
         </is>
       </c>
       <c r="T159" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>11 (84.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>16 (55.2%)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="W159">
-        <v>0.0376</v>
+        <v>0.4996</v>
       </c>
       <c r="X159" t="inlineStr">
         <is>
-          <t>15 (75.0%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="Y159" t="inlineStr">
         <is>
-          <t>9 (90.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z159" t="inlineStr">
         <is>
-          <t>66 (68.0%)</t>
+          <t>3 (1.0%)</t>
         </is>
       </c>
       <c r="AA159" t="inlineStr">
         <is>
-          <t>2 (50.0%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB159" t="inlineStr">
         <is>
-          <t>8 (66.7%)</t>
+          <t>2 (4.2%)</t>
         </is>
       </c>
       <c r="AC159">
-        <v>0.1706</v>
+        <v>0.0432</v>
       </c>
       <c r="AD159" t="inlineStr">
         <is>
-          <t>35 (79.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AE159" t="inlineStr">
         <is>
-          <t>39 (69.6%)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="AF159" t="inlineStr">
         <is>
-          <t>26 (60.5%)</t>
+          <t>5 (3.5%)</t>
         </is>
       </c>
       <c r="AG159">
-        <v>0.369</v>
+        <v>0.6071</v>
       </c>
       <c r="AH159" t="inlineStr">
         <is>
@@ -25822,114 +25822,114 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Tiempo / disponibilidad</t>
+          <t>Falta de infraestructura / distancia</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>10 (16.7%)</t>
+          <t>8 (3.8%)</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>8 (9.6%)</t>
+          <t>6 (2.7%)</t>
         </is>
       </c>
       <c r="F160">
-        <v>0.483</v>
+        <v>0.286</v>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>6 (20.7%)</t>
+          <t>6 (6.7%)</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>8 (15.1%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="I160" t="inlineStr">
         <is>
-          <t>4 (6.6%)</t>
+          <t>2 (1.1%)</t>
         </is>
       </c>
       <c r="J160">
-        <v>0.4611</v>
+        <v>0.301</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>2 (18.2%)</t>
+          <t>3 (4.2%)</t>
         </is>
       </c>
       <c r="L160" t="inlineStr">
         <is>
-          <t>3 (15.8%)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>7 (20.0%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="N160" t="inlineStr">
         <is>
-          <t>3 (13.0%)</t>
+          <t>7 (10.6%)</t>
         </is>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>1 (25.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P160" t="inlineStr">
         <is>
-          <t>2 (3.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Q160">
-        <v>0.031</v>
+        <v>0</v>
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>2 (7.4%)</t>
+          <t>2 (2.5%)</t>
         </is>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>6 (8.1%)</t>
+          <t>6 (3.1%)</t>
         </is>
       </c>
       <c r="T160" t="inlineStr">
         <is>
-          <t>0 (NaN%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>2 (3.4%)</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>9 (31.0%)</t>
+          <t>4 (4.1%)</t>
         </is>
       </c>
       <c r="W160">
-        <v>0.0376</v>
+        <v>0.4996</v>
       </c>
       <c r="X160" t="inlineStr">
         <is>
-          <t>1 (5.0%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y160" t="inlineStr">
         <is>
-          <t>1 (10.0%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z160" t="inlineStr">
         <is>
-          <t>14 (14.4%)</t>
+          <t>12 (4.0%)</t>
         </is>
       </c>
       <c r="AA160" t="inlineStr">
@@ -25939,29 +25939,29 @@
       </c>
       <c r="AB160" t="inlineStr">
         <is>
-          <t>2 (16.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC160">
-        <v>0.1706</v>
+        <v>0.0432</v>
       </c>
       <c r="AD160" t="inlineStr">
         <is>
-          <t>5 (11.4%)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="AE160" t="inlineStr">
         <is>
-          <t>7 (12.5%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="AF160" t="inlineStr">
         <is>
-          <t>6 (14.0%)</t>
+          <t>2 (1.4%)</t>
         </is>
       </c>
       <c r="AG160">
-        <v>0.369</v>
+        <v>0.6071</v>
       </c>
       <c r="AH160" t="inlineStr">
         <is>
@@ -25972,53 +25972,53 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Otra fuente</t>
+          <t>Inseguridad / acoso</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>6 (5.9%)</t>
+          <t>9 (4.2%)</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>4 (4.2%)</t>
+          <t>11 (5.0%)</t>
         </is>
       </c>
       <c r="F161">
-        <v>0.5931999999999999</v>
+        <v>0.286</v>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>5 (11.1%)</t>
+          <t>4 (4.4%)</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>4 (5.3%)</t>
+          <t>6 (3.8%)</t>
         </is>
       </c>
       <c r="I161" t="inlineStr">
         <is>
-          <t>1 (1.3%)</t>
+          <t>10 (5.3%)</t>
         </is>
       </c>
       <c r="J161">
-        <v>0.0597</v>
+        <v>0.301</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
-          <t>6 (21.4%)</t>
+          <t>4 (5.6%)</t>
         </is>
       </c>
       <c r="L161" t="inlineStr">
@@ -26028,35 +26028,35 @@
       </c>
       <c r="M161" t="inlineStr">
         <is>
-          <t>1 (1.8%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="N161" t="inlineStr">
         <is>
-          <t>1 (2.7%)</t>
+          <t>5 (7.6%)</t>
         </is>
       </c>
       <c r="O161" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="P161" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>5 (4.9%)</t>
         </is>
       </c>
       <c r="Q161">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>1 (2.4%)</t>
+          <t>7 (8.6%)</t>
         </is>
       </c>
       <c r="S161" t="inlineStr">
         <is>
-          <t>2 (2.4%)</t>
+          <t>8 (4.1%)</t>
         </is>
       </c>
       <c r="T161" t="inlineStr">
@@ -26066,20 +26066,20 @@
       </c>
       <c r="U161" t="inlineStr">
         <is>
-          <t>4 (16.7%)</t>
+          <t>2 (3.4%)</t>
         </is>
       </c>
       <c r="V161" t="inlineStr">
         <is>
-          <t>3 (6.1%)</t>
+          <t>3 (3.1%)</t>
         </is>
       </c>
       <c r="W161">
-        <v>0.07099999999999999</v>
+        <v>0.4996</v>
       </c>
       <c r="X161" t="inlineStr">
         <is>
-          <t>2 (6.9%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="Y161" t="inlineStr">
@@ -26089,12 +26089,12 @@
       </c>
       <c r="Z161" t="inlineStr">
         <is>
-          <t>7 (5.1%)</t>
+          <t>17 (5.6%)</t>
         </is>
       </c>
       <c r="AA161" t="inlineStr">
         <is>
-          <t>1 (12.5%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB161" t="inlineStr">
@@ -26103,25 +26103,25 @@
         </is>
       </c>
       <c r="AC161">
-        <v>0.6824</v>
+        <v>0.0432</v>
       </c>
       <c r="AD161" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="AE161" t="inlineStr">
         <is>
-          <t>7 (10.4%)</t>
+          <t>7 (4.5%)</t>
         </is>
       </c>
       <c r="AF161" t="inlineStr">
         <is>
-          <t>3 (3.8%)</t>
+          <t>8 (5.7%)</t>
         </is>
       </c>
       <c r="AG161">
-        <v>0.0305</v>
+        <v>0.6071</v>
       </c>
       <c r="AH161" t="inlineStr">
         <is>
@@ -26132,156 +26132,156 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>p31_fuente_contaminacion_agregada</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Mayor fuente de contaminación percibida</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Vehículos motorizados</t>
+          <t>Limitaciones económicas</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>96 (94.1%)</t>
+          <t>38 (17.9%)</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>91 (95.8%)</t>
+          <t>62 (28.1%)</t>
         </is>
       </c>
       <c r="F162">
-        <v>0.5931999999999999</v>
+        <v>0.286</v>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>40 (88.9%)</t>
+          <t>17 (18.9%)</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>72 (94.7%)</t>
+          <t>37 (23.7%)</t>
         </is>
       </c>
       <c r="I162" t="inlineStr">
         <is>
-          <t>75 (98.7%)</t>
+          <t>46 (24.6%)</t>
         </is>
       </c>
       <c r="J162">
-        <v>0.0597</v>
+        <v>0.301</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
-          <t>22 (78.6%)</t>
+          <t>6 (8.3%)</t>
         </is>
       </c>
       <c r="L162" t="inlineStr">
         <is>
-          <t>26 (100.0%)</t>
+          <t>13 (26.5%)</t>
         </is>
       </c>
       <c r="M162" t="inlineStr">
         <is>
-          <t>54 (98.2%)</t>
+          <t>22 (16.2%)</t>
         </is>
       </c>
       <c r="N162" t="inlineStr">
         <is>
-          <t>36 (97.3%)</t>
+          <t>13 (19.7%)</t>
         </is>
       </c>
       <c r="O162" t="inlineStr">
         <is>
-          <t>3 (100.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="P162" t="inlineStr">
         <is>
-          <t>46 (95.8%)</t>
+          <t>45 (43.7%)</t>
         </is>
       </c>
       <c r="Q162">
-        <v>0.0021</v>
+        <v>0</v>
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>40 (97.6%)</t>
+          <t>16 (19.8%)</t>
         </is>
       </c>
       <c r="S162" t="inlineStr">
         <is>
-          <t>80 (97.6%)</t>
+          <t>57 (29.1%)</t>
         </is>
       </c>
       <c r="T162" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U162" t="inlineStr">
         <is>
-          <t>20 (83.3%)</t>
+          <t>11 (19.0%)</t>
         </is>
       </c>
       <c r="V162" t="inlineStr">
         <is>
-          <t>46 (93.9%)</t>
+          <t>16 (16.5%)</t>
         </is>
       </c>
       <c r="W162">
-        <v>0.07099999999999999</v>
+        <v>0.4996</v>
       </c>
       <c r="X162" t="inlineStr">
         <is>
-          <t>27 (93.1%)</t>
+          <t>15 (27.8%)</t>
         </is>
       </c>
       <c r="Y162" t="inlineStr">
         <is>
-          <t>6 (100.0%)</t>
+          <t>9 (52.9%)</t>
         </is>
       </c>
       <c r="Z162" t="inlineStr">
         <is>
-          <t>131 (94.9%)</t>
+          <t>66 (21.9%)</t>
         </is>
       </c>
       <c r="AA162" t="inlineStr">
         <is>
-          <t>7 (87.5%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB162" t="inlineStr">
         <is>
-          <t>16 (100.0%)</t>
+          <t>8 (16.7%)</t>
         </is>
       </c>
       <c r="AC162">
-        <v>0.6824</v>
+        <v>0.0432</v>
       </c>
       <c r="AD162" t="inlineStr">
         <is>
-          <t>50 (100.0%)</t>
+          <t>35 (25.7%)</t>
         </is>
       </c>
       <c r="AE162" t="inlineStr">
         <is>
-          <t>60 (89.6%)</t>
+          <t>39 (25.0%)</t>
         </is>
       </c>
       <c r="AF162" t="inlineStr">
         <is>
-          <t>77 (96.2%)</t>
+          <t>26 (18.4%)</t>
         </is>
       </c>
       <c r="AG162">
-        <v>0.0305</v>
+        <v>0.6071</v>
       </c>
       <c r="AH162" t="inlineStr">
         <is>
@@ -26292,91 +26292,91 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Automóvil</t>
+          <t>Modo actual</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>58 (33.3%)</t>
+          <t>123 (58.0%)</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>55 (34.0%)</t>
+          <t>108 (48.9%)</t>
         </is>
       </c>
       <c r="F163">
-        <v>0.3132</v>
+        <v>0.286</v>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>28 (37.3%)</t>
+          <t>45 (50.0%)</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>38 (33.6%)</t>
+          <t>78 (50.0%)</t>
         </is>
       </c>
       <c r="I163" t="inlineStr">
         <is>
-          <t>47 (31.8%)</t>
+          <t>108 (57.8%)</t>
         </is>
       </c>
       <c r="J163">
-        <v>0.9695</v>
+        <v>0.301</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>24 (39.3%)</t>
+          <t>52 (72.2%)</t>
         </is>
       </c>
       <c r="L163" t="inlineStr">
         <is>
-          <t>17 (42.5%)</t>
+          <t>26 (53.1%)</t>
         </is>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>28 (27.2%)</t>
+          <t>90 (66.2%)</t>
         </is>
       </c>
       <c r="N163" t="inlineStr">
         <is>
-          <t>17 (34.0%)</t>
+          <t>27 (40.9%)</t>
         </is>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>1 (14.3%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="P163" t="inlineStr">
         <is>
-          <t>26 (34.7%)</t>
+          <t>34 (33.0%)</t>
         </is>
       </c>
       <c r="Q163">
-        <v>0.0322</v>
+        <v>0</v>
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>21 (37.5%)</t>
+          <t>44 (54.3%)</t>
         </is>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>46 (31.3%)</t>
+          <t>97 (49.5%)</t>
         </is>
       </c>
       <c r="T163" t="inlineStr">
@@ -26386,62 +26386,62 @@
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>20 (37.0%)</t>
+          <t>34 (58.6%)</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>25 (32.1%)</t>
+          <t>55 (56.7%)</t>
         </is>
       </c>
       <c r="W163">
-        <v>0.7309</v>
+        <v>0.4996</v>
       </c>
       <c r="X163" t="inlineStr">
         <is>
-          <t>10 (25.0%)</t>
+          <t>29 (53.7%)</t>
         </is>
       </c>
       <c r="Y163" t="inlineStr">
         <is>
-          <t>6 (42.9%)</t>
+          <t>4 (23.5%)</t>
         </is>
       </c>
       <c r="Z163" t="inlineStr">
         <is>
-          <t>85 (35.9%)</t>
+          <t>165 (54.8%)</t>
         </is>
       </c>
       <c r="AA163" t="inlineStr">
         <is>
-          <t>3 (27.3%)</t>
+          <t>7 (53.8%)</t>
         </is>
       </c>
       <c r="AB163" t="inlineStr">
         <is>
-          <t>9 (26.5%)</t>
+          <t>26 (54.2%)</t>
         </is>
       </c>
       <c r="AC163">
-        <v>0.1294</v>
+        <v>0.0432</v>
       </c>
       <c r="AD163" t="inlineStr">
         <is>
-          <t>36 (33.6%)</t>
+          <t>73 (53.7%)</t>
         </is>
       </c>
       <c r="AE163" t="inlineStr">
         <is>
-          <t>37 (29.8%)</t>
+          <t>78 (50.0%)</t>
         </is>
       </c>
       <c r="AF163" t="inlineStr">
         <is>
-          <t>40 (38.1%)</t>
+          <t>80 (56.7%)</t>
         </is>
       </c>
       <c r="AG163">
-        <v>0.0852</v>
+        <v>0.6071</v>
       </c>
       <c r="AH163" t="inlineStr">
         <is>
@@ -26452,68 +26452,68 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Camión</t>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>27 (15.5%)</t>
+          <t>20 (9.4%)</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>20 (12.3%)</t>
+          <t>21 (9.5%)</t>
         </is>
       </c>
       <c r="F164">
-        <v>0.3132</v>
+        <v>0.286</v>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>9 (12.0%)</t>
+          <t>10 (11.1%)</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>17 (15.0%)</t>
+          <t>17 (10.9%)</t>
         </is>
       </c>
       <c r="I164" t="inlineStr">
         <is>
-          <t>21 (14.2%)</t>
+          <t>14 (7.5%)</t>
         </is>
       </c>
       <c r="J164">
-        <v>0.9695</v>
+        <v>0.301</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>6 (9.8%)</t>
+          <t>4 (5.6%)</t>
         </is>
       </c>
       <c r="L164" t="inlineStr">
         <is>
-          <t>4 (10.0%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>15 (14.6%)</t>
+          <t>8 (5.9%)</t>
         </is>
       </c>
       <c r="N164" t="inlineStr">
         <is>
-          <t>6 (12.0%)</t>
+          <t>9 (13.6%)</t>
         </is>
       </c>
       <c r="O164" t="inlineStr">
@@ -26523,20 +26523,20 @@
       </c>
       <c r="P164" t="inlineStr">
         <is>
-          <t>15 (20.0%)</t>
+          <t>16 (15.5%)</t>
         </is>
       </c>
       <c r="Q164">
-        <v>0.0322</v>
+        <v>0</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>9 (16.1%)</t>
+          <t>7 (8.6%)</t>
         </is>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>21 (14.3%)</t>
+          <t>18 (9.2%)</t>
         </is>
       </c>
       <c r="T164" t="inlineStr">
@@ -26546,62 +26546,62 @@
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>7 (13.0%)</t>
+          <t>8 (13.8%)</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>10 (12.8%)</t>
+          <t>8 (8.2%)</t>
         </is>
       </c>
       <c r="W164">
-        <v>0.7309</v>
+        <v>0.4996</v>
       </c>
       <c r="X164" t="inlineStr">
         <is>
-          <t>7 (17.5%)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="Y164" t="inlineStr">
         <is>
-          <t>1 (7.1%)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="Z164" t="inlineStr">
         <is>
-          <t>34 (14.3%)</t>
+          <t>24 (8.0%)</t>
         </is>
       </c>
       <c r="AA164" t="inlineStr">
         <is>
-          <t>4 (36.4%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB164" t="inlineStr">
         <is>
-          <t>1 (2.9%)</t>
+          <t>10 (20.8%)</t>
         </is>
       </c>
       <c r="AC164">
-        <v>0.1294</v>
+        <v>0.0432</v>
       </c>
       <c r="AD164" t="inlineStr">
         <is>
-          <t>14 (13.1%)</t>
+          <t>12 (8.8%)</t>
         </is>
       </c>
       <c r="AE164" t="inlineStr">
         <is>
-          <t>15 (12.1%)</t>
+          <t>15 (9.6%)</t>
         </is>
       </c>
       <c r="AF164" t="inlineStr">
         <is>
-          <t>18 (17.1%)</t>
+          <t>14 (9.9%)</t>
         </is>
       </c>
       <c r="AG164">
-        <v>0.0852</v>
+        <v>0.6071</v>
       </c>
       <c r="AH164" t="inlineStr">
         <is>
@@ -26612,91 +26612,91 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p30_razon_no_uso_agregado</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Razón para no usar el modo ideal (agregada)</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Motocicleta</t>
+          <t>Tiempo / disponibilidad</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>23 (13.2%)</t>
+          <t>10 (4.7%)</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>12 (7.4%)</t>
+          <t>8 (3.6%)</t>
         </is>
       </c>
       <c r="F165">
-        <v>0.3132</v>
+        <v>0.286</v>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>8 (10.7%)</t>
+          <t>6 (6.7%)</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>13 (11.5%)</t>
+          <t>8 (5.1%)</t>
         </is>
       </c>
       <c r="I165" t="inlineStr">
         <is>
-          <t>14 (9.5%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="J165">
-        <v>0.9695</v>
+        <v>0.301</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>8 (13.1%)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>1 (2.5%)</t>
+          <t>3 (6.1%)</t>
         </is>
       </c>
       <c r="M165" t="inlineStr">
         <is>
-          <t>9 (8.7%)</t>
+          <t>7 (5.1%)</t>
         </is>
       </c>
       <c r="N165" t="inlineStr">
         <is>
-          <t>8 (16.0%)</t>
+          <t>3 (4.5%)</t>
         </is>
       </c>
       <c r="O165" t="inlineStr">
         <is>
-          <t>3 (42.9%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="P165" t="inlineStr">
         <is>
-          <t>6 (8.0%)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="Q165">
-        <v>0.0322</v>
+        <v>0</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>7 (12.5%)</t>
+          <t>2 (2.5%)</t>
         </is>
       </c>
       <c r="S165" t="inlineStr">
         <is>
-          <t>16 (10.9%)</t>
+          <t>6 (3.1%)</t>
         </is>
       </c>
       <c r="T165" t="inlineStr">
@@ -26706,62 +26706,62 @@
       </c>
       <c r="U165" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>1 (1.7%)</t>
         </is>
       </c>
       <c r="V165" t="inlineStr">
         <is>
-          <t>9 (11.5%)</t>
+          <t>9 (9.3%)</t>
         </is>
       </c>
       <c r="W165">
-        <v>0.7309</v>
+        <v>0.4996</v>
       </c>
       <c r="X165" t="inlineStr">
         <is>
-          <t>6 (15.0%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y165" t="inlineStr">
         <is>
-          <t>1 (7.1%)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z165" t="inlineStr">
         <is>
-          <t>24 (10.1%)</t>
+          <t>14 (4.7%)</t>
         </is>
       </c>
       <c r="AA165" t="inlineStr">
         <is>
-          <t>2 (18.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB165" t="inlineStr">
         <is>
-          <t>2 (5.9%)</t>
+          <t>2 (4.2%)</t>
         </is>
       </c>
       <c r="AC165">
-        <v>0.1294</v>
+        <v>0.0432</v>
       </c>
       <c r="AD165" t="inlineStr">
         <is>
-          <t>6 (5.6%)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="AE165" t="inlineStr">
         <is>
-          <t>15 (12.1%)</t>
+          <t>7 (4.5%)</t>
         </is>
       </c>
       <c r="AF165" t="inlineStr">
         <is>
-          <t>14 (13.3%)</t>
+          <t>6 (4.3%)</t>
         </is>
       </c>
       <c r="AG165">
-        <v>0.0852</v>
+        <v>0.6071</v>
       </c>
       <c r="AH165" t="inlineStr">
         <is>
@@ -26772,91 +26772,91 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Otro modo</t>
+          <t>Industria/Obras</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>3 (1.7%)</t>
+          <t>56 (26.4%)</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>3 (1.9%)</t>
+          <t>50 (22.6%)</t>
         </is>
       </c>
       <c r="F166">
-        <v>0.3132</v>
+        <v>0.6717</v>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>2 (2.7%)</t>
+          <t>19 (21.1%)</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>1 (0.9%)</t>
+          <t>35 (22.4%)</t>
         </is>
       </c>
       <c r="I166" t="inlineStr">
         <is>
-          <t>3 (2.0%)</t>
+          <t>52 (27.8%)</t>
         </is>
       </c>
       <c r="J166">
-        <v>0.9695</v>
+        <v>0.4795</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>4 (6.6%)</t>
+          <t>23 (31.9%)</t>
         </is>
       </c>
       <c r="L166" t="inlineStr">
         <is>
-          <t>1 (2.5%)</t>
+          <t>9 (18.4%)</t>
         </is>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>1 (1.0%)</t>
+          <t>39 (28.7%)</t>
         </is>
       </c>
       <c r="N166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>12 (18.2%)</t>
         </is>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>21 (20.4%)</t>
         </is>
       </c>
       <c r="Q166">
-        <v>0.0322</v>
+        <v>0.0699</v>
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>14 (17.3%)</t>
         </is>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>3 (2.0%)</t>
+          <t>47 (24.0%)</t>
         </is>
       </c>
       <c r="T166" t="inlineStr">
@@ -26866,62 +26866,62 @@
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>23 (39.7%)</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>22 (22.7%)</t>
         </is>
       </c>
       <c r="W166">
-        <v>0.7309</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="X166" t="inlineStr">
         <is>
-          <t>2 (5.0%)</t>
+          <t>13 (24.1%)</t>
         </is>
       </c>
       <c r="Y166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>7 (41.2%)</t>
         </is>
       </c>
       <c r="Z166" t="inlineStr">
         <is>
-          <t>4 (1.7%)</t>
+          <t>75 (24.9%)</t>
         </is>
       </c>
       <c r="AA166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (23.1%)</t>
         </is>
       </c>
       <c r="AB166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (16.7%)</t>
         </is>
       </c>
       <c r="AC166">
-        <v>0.1294</v>
+        <v>0.0786</v>
       </c>
       <c r="AD166" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>46 (33.8%)</t>
         </is>
       </c>
       <c r="AE166" t="inlineStr">
         <is>
-          <t>4 (3.2%)</t>
+          <t>40 (25.6%)</t>
         </is>
       </c>
       <c r="AF166" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>20 (14.2%)</t>
         </is>
       </c>
       <c r="AG166">
-        <v>0.0852</v>
+        <v>0.0005</v>
       </c>
       <c r="AH166" t="inlineStr">
         <is>
@@ -26932,91 +26932,91 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>p33_modo_contaminante_agregado</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Modo de movilidad que más contamina (agregado)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Transporte público</t>
+          <t>Otra fuente</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>63 (36.2%)</t>
+          <t>7 (3.3%)</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>72 (44.4%)</t>
+          <t>9 (4.1%)</t>
         </is>
       </c>
       <c r="F167">
-        <v>0.3132</v>
+        <v>0.6717</v>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>28 (37.3%)</t>
+          <t>7 (7.8%)</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>44 (38.9%)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="I167" t="inlineStr">
         <is>
-          <t>63 (42.6%)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="J167">
-        <v>0.9695</v>
+        <v>0.4795</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>19 (31.1%)</t>
+          <t>8 (11.1%)</t>
         </is>
       </c>
       <c r="L167" t="inlineStr">
         <is>
-          <t>17 (42.5%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>50 (48.5%)</t>
+          <t>4 (2.9%)</t>
         </is>
       </c>
       <c r="N167" t="inlineStr">
         <is>
-          <t>19 (38.0%)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>2 (28.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>28 (37.3%)</t>
+          <t>3 (2.9%)</t>
         </is>
       </c>
       <c r="Q167">
-        <v>0.0322</v>
+        <v>0.0699</v>
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>19 (33.9%)</t>
+          <t>2 (2.5%)</t>
         </is>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>61 (41.5%)</t>
+          <t>5 (2.6%)</t>
         </is>
       </c>
       <c r="T167" t="inlineStr">
@@ -27026,62 +27026,62 @@
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>21 (38.9%)</t>
+          <t>5 (8.6%)</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>34 (43.6%)</t>
+          <t>4 (4.1%)</t>
         </is>
       </c>
       <c r="W167">
-        <v>0.7309</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="X167" t="inlineStr">
         <is>
-          <t>15 (37.5%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="Y167" t="inlineStr">
         <is>
-          <t>6 (42.9%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z167" t="inlineStr">
         <is>
-          <t>90 (38.0%)</t>
+          <t>10 (3.3%)</t>
         </is>
       </c>
       <c r="AA167" t="inlineStr">
         <is>
-          <t>2 (18.2%)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB167" t="inlineStr">
         <is>
-          <t>22 (64.7%)</t>
+          <t>2 (4.2%)</t>
         </is>
       </c>
       <c r="AC167">
-        <v>0.1294</v>
+        <v>0.0786</v>
       </c>
       <c r="AD167" t="inlineStr">
         <is>
-          <t>51 (47.7%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="AE167" t="inlineStr">
         <is>
-          <t>53 (42.7%)</t>
+          <t>10 (6.4%)</t>
         </is>
       </c>
       <c r="AF167" t="inlineStr">
         <is>
-          <t>31 (29.5%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="AG167">
-        <v>0.0852</v>
+        <v>0.0005</v>
       </c>
       <c r="AH167" t="inlineStr">
         <is>
@@ -27092,91 +27092,91 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Condiciones climáticas</t>
+          <t>Productos químicos</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>7 (3.3%)</t>
+          <t>11 (5.2%)</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>9 (4.1%)</t>
+          <t>14 (6.3%)</t>
         </is>
       </c>
       <c r="F168">
-        <v>0.8986</v>
+        <v>0.6717</v>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>4 (4.5%)</t>
+          <t>4 (4.4%)</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>8 (5.2%)</t>
+          <t>7 (4.5%)</t>
         </is>
       </c>
       <c r="I168" t="inlineStr">
         <is>
-          <t>4 (2.2%)</t>
+          <t>14 (7.5%)</t>
         </is>
       </c>
       <c r="J168">
-        <v>0.2942</v>
+        <v>0.4795</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>2 (2.8%)</t>
+          <t>6 (8.3%)</t>
         </is>
       </c>
       <c r="L168" t="inlineStr">
         <is>
-          <t>5 (10.4%)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>6 (4.5%)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="N168" t="inlineStr">
         <is>
-          <t>1 (1.5%)</t>
+          <t>2 (3.0%)</t>
         </is>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>2 (1.9%)</t>
+          <t>5 (4.9%)</t>
         </is>
       </c>
       <c r="Q168">
-        <v>0.008200000000000001</v>
+        <v>0.0699</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>8 (9.9%)</t>
         </is>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>12 (6.2%)</t>
+          <t>12 (6.1%)</t>
         </is>
       </c>
       <c r="T168" t="inlineStr">
@@ -27191,15 +27191,15 @@
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>2 (2.1%)</t>
+          <t>3 (3.1%)</t>
         </is>
       </c>
       <c r="W168">
-        <v>0.0606</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="X168" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>1 (1.9%)</t>
         </is>
       </c>
       <c r="Y168" t="inlineStr">
@@ -27209,39 +27209,39 @@
       </c>
       <c r="Z168" t="inlineStr">
         <is>
-          <t>11 (3.7%)</t>
+          <t>16 (5.3%)</t>
         </is>
       </c>
       <c r="AA168" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB168" t="inlineStr">
         <is>
-          <t>1 (2.1%)</t>
+          <t>8 (16.7%)</t>
         </is>
       </c>
       <c r="AC168">
-        <v>0.955</v>
+        <v>0.0786</v>
       </c>
       <c r="AD168" t="inlineStr">
         <is>
-          <t>5 (3.7%)</t>
+          <t>3 (2.2%)</t>
         </is>
       </c>
       <c r="AE168" t="inlineStr">
         <is>
-          <t>5 (3.2%)</t>
+          <t>11 (7.1%)</t>
         </is>
       </c>
       <c r="AF168" t="inlineStr">
         <is>
-          <t>6 (4.3%)</t>
+          <t>11 (7.8%)</t>
         </is>
       </c>
       <c r="AG168">
-        <v>0.8063</v>
+        <v>0.0005</v>
       </c>
       <c r="AH168" t="inlineStr">
         <is>
@@ -27252,73 +27252,73 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Costos altos</t>
+          <t>Quema de residuos</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>23 (11.0%)</t>
+          <t>10 (4.7%)</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>23 (10.5%)</t>
+          <t>13 (5.9%)</t>
         </is>
       </c>
       <c r="F169">
-        <v>0.8986</v>
+        <v>0.6717</v>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>10 (11.2%)</t>
+          <t>5 (5.6%)</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>17 (11.0%)</t>
+          <t>9 (5.8%)</t>
         </is>
       </c>
       <c r="I169" t="inlineStr">
         <is>
-          <t>19 (10.2%)</t>
+          <t>9 (4.8%)</t>
         </is>
       </c>
       <c r="J169">
-        <v>0.2942</v>
+        <v>0.4795</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>14 (19.4%)</t>
+          <t>3 (4.2%)</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
         <is>
-          <t>2 (4.2%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>14 (10.4%)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="N169" t="inlineStr">
         <is>
-          <t>8 (12.3%)</t>
+          <t>5 (7.6%)</t>
         </is>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>2 (28.6%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P169" t="inlineStr">
@@ -27327,16 +27327,16 @@
         </is>
       </c>
       <c r="Q169">
-        <v>0.008200000000000001</v>
+        <v>0.0699</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>10 (12.8%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>21 (10.8%)</t>
+          <t>15 (7.7%)</t>
         </is>
       </c>
       <c r="T169" t="inlineStr">
@@ -27346,7 +27346,7 @@
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>8 (13.8%)</t>
+          <t>1 (1.7%)</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
@@ -27355,11 +27355,11 @@
         </is>
       </c>
       <c r="W169">
-        <v>0.0606</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="X169" t="inlineStr">
         <is>
-          <t>8 (14.8%)</t>
+          <t>2 (3.7%)</t>
         </is>
       </c>
       <c r="Y169" t="inlineStr">
@@ -27369,39 +27369,39 @@
       </c>
       <c r="Z169" t="inlineStr">
         <is>
-          <t>30 (10.1%)</t>
+          <t>16 (5.3%)</t>
         </is>
       </c>
       <c r="AA169" t="inlineStr">
         <is>
-          <t>3 (23.1%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB169" t="inlineStr">
         <is>
-          <t>5 (10.6%)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="AC169">
-        <v>0.955</v>
+        <v>0.0786</v>
       </c>
       <c r="AD169" t="inlineStr">
         <is>
-          <t>12 (8.8%)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="AE169" t="inlineStr">
         <is>
-          <t>14 (9.0%)</t>
+          <t>11 (7.1%)</t>
         </is>
       </c>
       <c r="AF169" t="inlineStr">
         <is>
-          <t>20 (14.5%)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="AG169">
-        <v>0.8063</v>
+        <v>0.0005</v>
       </c>
       <c r="AH169" t="inlineStr">
         <is>
@@ -27412,156 +27412,156 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Falta de información</t>
+          <t>Vehículos motorizados</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>16 (7.7%)</t>
+          <t>96 (45.3%)</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>16 (7.3%)</t>
+          <t>91 (41.2%)</t>
         </is>
       </c>
       <c r="F170">
-        <v>0.8986</v>
+        <v>0.6717</v>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>6 (6.7%)</t>
+          <t>40 (44.4%)</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>15 (9.7%)</t>
+          <t>72 (46.2%)</t>
         </is>
       </c>
       <c r="I170" t="inlineStr">
         <is>
-          <t>11 (5.9%)</t>
+          <t>75 (40.1%)</t>
         </is>
       </c>
       <c r="J170">
-        <v>0.2942</v>
+        <v>0.4795</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
-          <t>3 (4.2%)</t>
+          <t>22 (30.6%)</t>
         </is>
       </c>
       <c r="L170" t="inlineStr">
         <is>
-          <t>9 (18.8%)</t>
+          <t>26 (53.1%)</t>
         </is>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>9 (6.7%)</t>
+          <t>54 (39.7%)</t>
         </is>
       </c>
       <c r="N170" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>36 (54.5%)</t>
         </is>
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>3 (42.9%)</t>
         </is>
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>11 (10.7%)</t>
+          <t>46 (44.7%)</t>
         </is>
       </c>
       <c r="Q170">
-        <v>0.008200000000000001</v>
+        <v>0.0699</v>
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>8 (10.3%)</t>
+          <t>40 (49.4%)</t>
         </is>
       </c>
       <c r="S170" t="inlineStr">
         <is>
-          <t>14 (7.2%)</t>
+          <t>80 (40.8%)</t>
         </is>
       </c>
       <c r="T170" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>3 (5.2%)</t>
+          <t>20 (34.5%)</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>7 (7.2%)</t>
+          <t>46 (47.4%)</t>
         </is>
       </c>
       <c r="W170">
-        <v>0.0606</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="X170" t="inlineStr">
         <is>
-          <t>5 (9.3%)</t>
+          <t>27 (50.0%)</t>
         </is>
       </c>
       <c r="Y170" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>6 (35.3%)</t>
         </is>
       </c>
       <c r="Z170" t="inlineStr">
         <is>
-          <t>20 (6.7%)</t>
+          <t>131 (43.5%)</t>
         </is>
       </c>
       <c r="AA170" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>7 (53.8%)</t>
         </is>
       </c>
       <c r="AB170" t="inlineStr">
         <is>
-          <t>4 (8.5%)</t>
+          <t>16 (33.3%)</t>
         </is>
       </c>
       <c r="AC170">
-        <v>0.955</v>
+        <v>0.0786</v>
       </c>
       <c r="AD170" t="inlineStr">
         <is>
-          <t>12 (8.8%)</t>
+          <t>50 (36.8%)</t>
         </is>
       </c>
       <c r="AE170" t="inlineStr">
         <is>
-          <t>12 (7.7%)</t>
+          <t>60 (38.5%)</t>
         </is>
       </c>
       <c r="AF170" t="inlineStr">
         <is>
-          <t>8 (5.8%)</t>
+          <t>77 (54.6%)</t>
         </is>
       </c>
       <c r="AG170">
-        <v>0.8063</v>
+        <v>0.0005</v>
       </c>
       <c r="AH170" t="inlineStr">
         <is>
@@ -27572,68 +27572,68 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p31_fuente_contaminacion_agregada</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Mayor fuente de contaminación percibida</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Falta de infraestructura</t>
+          <t>Vertederos (basureros) y rellenos sanitarios</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>46 (22.0%)</t>
+          <t>32 (15.1%)</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>40 (18.2%)</t>
+          <t>44 (19.9%)</t>
         </is>
       </c>
       <c r="F171">
-        <v>0.8986</v>
+        <v>0.6717</v>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>24 (27.0%)</t>
+          <t>15 (16.7%)</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>21 (13.6%)</t>
+          <t>28 (17.9%)</t>
         </is>
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>41 (22.0%)</t>
+          <t>33 (17.6%)</t>
         </is>
       </c>
       <c r="J171">
-        <v>0.2942</v>
+        <v>0.4795</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
-          <t>18 (25.0%)</t>
+          <t>10 (13.9%)</t>
         </is>
       </c>
       <c r="L171" t="inlineStr">
         <is>
-          <t>5 (10.4%)</t>
+          <t>12 (24.5%)</t>
         </is>
       </c>
       <c r="M171" t="inlineStr">
         <is>
-          <t>28 (20.9%)</t>
+          <t>21 (15.4%)</t>
         </is>
       </c>
       <c r="N171" t="inlineStr">
         <is>
-          <t>15 (23.1%)</t>
+          <t>10 (15.2%)</t>
         </is>
       </c>
       <c r="O171" t="inlineStr">
@@ -27643,20 +27643,20 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>19 (18.4%)</t>
+          <t>22 (21.4%)</t>
         </is>
       </c>
       <c r="Q171">
-        <v>0.008200000000000001</v>
+        <v>0.0699</v>
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>15 (19.2%)</t>
+          <t>17 (21.0%)</t>
         </is>
       </c>
       <c r="S171" t="inlineStr">
         <is>
-          <t>31 (15.9%)</t>
+          <t>37 (18.9%)</t>
         </is>
       </c>
       <c r="T171" t="inlineStr">
@@ -27666,62 +27666,62 @@
       </c>
       <c r="U171" t="inlineStr">
         <is>
-          <t>18 (31.0%)</t>
+          <t>7 (12.1%)</t>
         </is>
       </c>
       <c r="V171" t="inlineStr">
         <is>
-          <t>22 (22.7%)</t>
+          <t>15 (15.5%)</t>
         </is>
       </c>
       <c r="W171">
-        <v>0.0606</v>
+        <v>0.06320000000000001</v>
       </c>
       <c r="X171" t="inlineStr">
         <is>
-          <t>10 (18.5%)</t>
+          <t>9 (16.7%)</t>
         </is>
       </c>
       <c r="Y171" t="inlineStr">
         <is>
-          <t>3 (17.6%)</t>
+          <t>4 (23.5%)</t>
         </is>
       </c>
       <c r="Z171" t="inlineStr">
         <is>
-          <t>64 (21.5%)</t>
+          <t>53 (17.6%)</t>
         </is>
       </c>
       <c r="AA171" t="inlineStr">
         <is>
-          <t>2 (15.4%)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB171" t="inlineStr">
         <is>
-          <t>7 (14.9%)</t>
+          <t>9 (18.8%)</t>
         </is>
       </c>
       <c r="AC171">
-        <v>0.955</v>
+        <v>0.0786</v>
       </c>
       <c r="AD171" t="inlineStr">
         <is>
-          <t>24 (17.6%)</t>
+          <t>25 (18.4%)</t>
         </is>
       </c>
       <c r="AE171" t="inlineStr">
         <is>
-          <t>35 (22.6%)</t>
+          <t>24 (15.4%)</t>
         </is>
       </c>
       <c r="AF171" t="inlineStr">
         <is>
-          <t>27 (19.6%)</t>
+          <t>27 (19.1%)</t>
         </is>
       </c>
       <c r="AG171">
-        <v>0.8063</v>
+        <v>0.0005</v>
       </c>
       <c r="AH171" t="inlineStr">
         <is>
@@ -27732,156 +27732,156 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Inseguridad / violencia</t>
+          <t>Automóvil</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>98 (46.9%)</t>
+          <t>63 (29.7%)</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>114 (51.8%)</t>
+          <t>57 (25.8%)</t>
         </is>
       </c>
       <c r="F172">
-        <v>0.8986</v>
+        <v>0.206</v>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>36 (40.4%)</t>
+          <t>29 (32.2%)</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>80 (51.9%)</t>
+          <t>43 (27.6%)</t>
         </is>
       </c>
       <c r="I172" t="inlineStr">
         <is>
-          <t>96 (51.6%)</t>
+          <t>48 (25.7%)</t>
         </is>
       </c>
       <c r="J172">
-        <v>0.2942</v>
+        <v>0.8625</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>31 (43.1%)</t>
+          <t>26 (36.1%)</t>
         </is>
       </c>
       <c r="L172" t="inlineStr">
         <is>
-          <t>21 (43.8%)</t>
+          <t>17 (34.7%)</t>
         </is>
       </c>
       <c r="M172" t="inlineStr">
         <is>
-          <t>63 (47.0%)</t>
+          <t>30 (22.1%)</t>
         </is>
       </c>
       <c r="N172" t="inlineStr">
         <is>
-          <t>35 (53.8%)</t>
+          <t>19 (28.8%)</t>
         </is>
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>4 (57.1%)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>58 (56.3%)</t>
+          <t>26 (25.2%)</t>
         </is>
       </c>
       <c r="Q172">
-        <v>0.008200000000000001</v>
+        <v>0.0406</v>
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>40 (51.3%)</t>
+          <t>23 (28.4%)</t>
         </is>
       </c>
       <c r="S172" t="inlineStr">
         <is>
-          <t>103 (52.8%)</t>
+          <t>49 (25.0%)</t>
         </is>
       </c>
       <c r="T172" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
       <c r="U172" t="inlineStr">
         <is>
-          <t>22 (37.9%)</t>
+          <t>20 (34.5%)</t>
         </is>
       </c>
       <c r="V172" t="inlineStr">
         <is>
-          <t>47 (48.5%)</t>
+          <t>27 (27.8%)</t>
         </is>
       </c>
       <c r="W172">
-        <v>0.0606</v>
+        <v>0.1859</v>
       </c>
       <c r="X172" t="inlineStr">
         <is>
-          <t>25 (46.3%)</t>
+          <t>11 (20.4%)</t>
         </is>
       </c>
       <c r="Y172" t="inlineStr">
         <is>
-          <t>10 (58.8%)</t>
+          <t>6 (35.3%)</t>
         </is>
       </c>
       <c r="Z172" t="inlineStr">
         <is>
-          <t>147 (49.3%)</t>
+          <t>91 (30.2%)</t>
         </is>
       </c>
       <c r="AA172" t="inlineStr">
         <is>
-          <t>5 (38.5%)</t>
+          <t>3 (23.1%)</t>
         </is>
       </c>
       <c r="AB172" t="inlineStr">
         <is>
-          <t>25 (53.2%)</t>
+          <t>9 (18.8%)</t>
         </is>
       </c>
       <c r="AC172">
-        <v>0.955</v>
+        <v>0.2651</v>
       </c>
       <c r="AD172" t="inlineStr">
         <is>
-          <t>68 (50.0%)</t>
+          <t>38 (27.9%)</t>
         </is>
       </c>
       <c r="AE172" t="inlineStr">
         <is>
-          <t>77 (49.7%)</t>
+          <t>39 (25.0%)</t>
         </is>
       </c>
       <c r="AF172" t="inlineStr">
         <is>
-          <t>67 (48.6%)</t>
+          <t>43 (30.5%)</t>
         </is>
       </c>
       <c r="AG172">
-        <v>0.8063</v>
+        <v>0.0706</v>
       </c>
       <c r="AH172" t="inlineStr">
         <is>
@@ -27892,156 +27892,156 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>p35_razon_agregada</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Otro motivo</t>
+          <t>Camión</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>19 (9.1%)</t>
+          <t>60 (28.3%)</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>18 (8.2%)</t>
+          <t>77 (34.8%)</t>
         </is>
       </c>
       <c r="F173">
-        <v>0.8986</v>
+        <v>0.206</v>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>9 (10.1%)</t>
+          <t>23 (25.6%)</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>13 (8.4%)</t>
+          <t>54 (34.6%)</t>
         </is>
       </c>
       <c r="I173" t="inlineStr">
         <is>
-          <t>15 (8.1%)</t>
+          <t>60 (32.1%)</t>
         </is>
       </c>
       <c r="J173">
-        <v>0.2942</v>
+        <v>0.8625</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>4 (5.6%)</t>
+          <t>15 (20.8%)</t>
         </is>
       </c>
       <c r="L173" t="inlineStr">
         <is>
-          <t>6 (12.5%)</t>
+          <t>13 (26.5%)</t>
         </is>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>14 (10.4%)</t>
+          <t>46 (33.8%)</t>
         </is>
       </c>
       <c r="N173" t="inlineStr">
         <is>
-          <t>6 (9.2%)</t>
+          <t>20 (30.3%)</t>
         </is>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>0 (0.0%)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>7 (6.8%)</t>
+          <t>42 (40.8%)</t>
         </is>
       </c>
       <c r="Q173">
-        <v>0.008200000000000001</v>
+        <v>0.0406</v>
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>5 (6.4%)</t>
+          <t>33 (40.7%)</t>
         </is>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>14 (7.2%)</t>
+          <t>66 (33.7%)</t>
         </is>
       </c>
       <c r="T173" t="inlineStr">
         <is>
-          <t>1 (100.0%)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>5 (8.6%)</t>
+          <t>11 (19.0%)</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>12 (12.4%)</t>
+          <t>27 (27.8%)</t>
         </is>
       </c>
       <c r="W173">
-        <v>0.0606</v>
+        <v>0.1859</v>
       </c>
       <c r="X173" t="inlineStr">
         <is>
-          <t>3 (5.6%)</t>
+          <t>19 (35.2%)</t>
         </is>
       </c>
       <c r="Y173" t="inlineStr">
         <is>
-          <t>2 (11.8%)</t>
+          <t>4 (23.5%)</t>
         </is>
       </c>
       <c r="Z173" t="inlineStr">
         <is>
-          <t>26 (8.7%)</t>
+          <t>93 (30.9%)</t>
         </is>
       </c>
       <c r="AA173" t="inlineStr">
         <is>
-          <t>1 (7.7%)</t>
+          <t>6 (46.2%)</t>
         </is>
       </c>
       <c r="AB173" t="inlineStr">
         <is>
-          <t>5 (10.6%)</t>
+          <t>15 (31.2%)</t>
         </is>
       </c>
       <c r="AC173">
-        <v>0.955</v>
+        <v>0.2651</v>
       </c>
       <c r="AD173" t="inlineStr">
         <is>
-          <t>15 (11.0%)</t>
+          <t>41 (30.1%)</t>
         </is>
       </c>
       <c r="AE173" t="inlineStr">
         <is>
-          <t>12 (7.7%)</t>
+          <t>45 (28.8%)</t>
         </is>
       </c>
       <c r="AF173" t="inlineStr">
         <is>
-          <t>10 (7.2%)</t>
+          <t>51 (36.2%)</t>
         </is>
       </c>
       <c r="AG173">
-        <v>0.8063</v>
+        <v>0.0706</v>
       </c>
       <c r="AH173" t="inlineStr">
         <is>
@@ -28052,151 +28052,156 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_compra</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Importancia del costo de compra</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Motocicleta</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>22 (10.4%)</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (5.4%)</t>
         </is>
       </c>
       <c r="F174">
-        <v>0.0425</v>
+        <v>0.206</v>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>8 (8.9%)</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>5.0 (3.8–5.0)</t>
+          <t>13 (8.3%)</t>
         </is>
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>13 (7.0%)</t>
         </is>
       </c>
       <c r="J174">
-        <v>0.0944</v>
+        <v>0.8625</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>8 (11.1%)</t>
         </is>
       </c>
       <c r="L174" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="N174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>8 (12.1%)</t>
         </is>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>5.0 (3.5–5.0)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (5.8%)</t>
         </is>
       </c>
       <c r="Q174">
-        <v>0.2901</v>
+        <v>0.0406</v>
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>6 (7.4%)</t>
         </is>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>16 (8.2%)</t>
         </is>
       </c>
       <c r="T174" t="inlineStr">
         <is>
-          <t>2.0 (2.0–2.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>3 (5.2%)</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (9.3%)</t>
         </is>
       </c>
       <c r="W174">
-        <v>0.06569999999999999</v>
+        <v>0.1859</v>
       </c>
       <c r="X174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (11.1%)</t>
         </is>
       </c>
       <c r="Y174" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (5.9%)</t>
         </is>
       </c>
       <c r="Z174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>23 (7.6%)</t>
         </is>
       </c>
       <c r="AA174" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (4.2%)</t>
         </is>
       </c>
       <c r="AC174">
-        <v>0.0014</v>
+        <v>0.2651</v>
       </c>
       <c r="AD174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="AE174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>15 (9.6%)</t>
         </is>
       </c>
       <c r="AF174" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>13 (9.2%)</t>
         </is>
       </c>
       <c r="AG174">
-        <v>0.2321</v>
+        <v>0.0706</v>
       </c>
       <c r="AH174" t="inlineStr">
         <is>
@@ -28207,151 +28212,156 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>p28_importancia_costo_uso</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Importancia del costo de uso u operación</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Otro modo</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>4 (1.9%)</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>3 (1.4%)</t>
         </is>
       </c>
       <c r="F175">
-        <v>0.1788</v>
+        <v>0.206</v>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (2.2%)</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (1.3%)</t>
         </is>
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>3 (1.6%)</t>
         </is>
       </c>
       <c r="J175">
-        <v>0.5777</v>
+        <v>0.8625</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>4 (5.6%)</t>
         </is>
       </c>
       <c r="L175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (2.0%)</t>
         </is>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (0.7%)</t>
         </is>
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (1.0%)</t>
         </is>
       </c>
       <c r="Q175">
-        <v>0.1113</v>
+        <v>0.0406</v>
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (2.0%)</t>
         </is>
       </c>
       <c r="T175" t="inlineStr">
         <is>
-          <t>4.0 (4.0–4.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (5.2%)</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="W175">
-        <v>0.1298</v>
+        <v>0.1859</v>
       </c>
       <c r="X175" t="inlineStr">
         <is>
-          <t>4.0 (3.0–5.0)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="Y175" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z175" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (1.3%)</t>
         </is>
       </c>
       <c r="AA175" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AB175" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AC175">
-        <v>0.0105</v>
+        <v>0.2651</v>
       </c>
       <c r="AD175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="AE175" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (2.6%)</t>
         </is>
       </c>
       <c r="AF175" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (2.1%)</t>
         </is>
       </c>
       <c r="AG175">
-        <v>0.2278</v>
+        <v>0.0706</v>
       </c>
       <c r="AH175" t="inlineStr">
         <is>
@@ -28362,146 +28372,156 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>p28_importancia_comodidad</t>
+          <t>p33_modo_contaminante_agregado</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Importancia de la comodidad</t>
+          <t>Modo de movilidad que más contamina (agregado)</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Transporte público</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>63 (29.7%)</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>72 (32.6%)</t>
         </is>
       </c>
       <c r="F176">
-        <v>0.6128</v>
+        <v>0.206</v>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>28 (31.1%)</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>44 (28.2%)</t>
         </is>
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>63 (33.7%)</t>
         </is>
       </c>
       <c r="J176">
-        <v>0.7619</v>
+        <v>0.8625</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>19 (26.4%)</t>
         </is>
       </c>
       <c r="L176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>17 (34.7%)</t>
         </is>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>50 (36.8%)</t>
         </is>
       </c>
       <c r="N176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>19 (28.8%)</t>
         </is>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>5.0 (2.8–5.0)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>28 (27.2%)</t>
         </is>
       </c>
       <c r="Q176">
-        <v>0.5556</v>
+        <v>0.0406</v>
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>19 (23.5%)</t>
         </is>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>61 (31.1%)</t>
+        </is>
+      </c>
+      <c r="T176" t="inlineStr">
+        <is>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>5.0 (4.8–5.0)</t>
+          <t>21 (36.2%)</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>5.0 (4.5–5.0)</t>
+          <t>34 (35.1%)</t>
         </is>
       </c>
       <c r="W176">
-        <v>0.234</v>
+        <v>0.1859</v>
       </c>
       <c r="X176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>15 (27.8%)</t>
         </is>
       </c>
       <c r="Y176" t="inlineStr">
         <is>
-          <t>5.0 (4.8–5.0)</t>
+          <t>6 (35.3%)</t>
         </is>
       </c>
       <c r="Z176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>90 (29.9%)</t>
         </is>
       </c>
       <c r="AA176" t="inlineStr">
         <is>
-          <t>4.5 (3.0–5.0)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>22 (45.8%)</t>
         </is>
       </c>
       <c r="AC176">
-        <v>0.4184</v>
+        <v>0.2651</v>
       </c>
       <c r="AD176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>51 (37.5%)</t>
         </is>
       </c>
       <c r="AE176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>53 (34.0%)</t>
         </is>
       </c>
       <c r="AF176" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>31 (22.0%)</t>
         </is>
       </c>
       <c r="AG176">
-        <v>0.6143999999999999</v>
+        <v>0.0706</v>
       </c>
       <c r="AH176" t="inlineStr">
         <is>
@@ -28512,151 +28532,156 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>p28_importancia_tiempo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Importancia del tiempo de viaje</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Condiciones climáticas</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (3.3%)</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (4.1%)</t>
         </is>
       </c>
       <c r="F177">
-        <v>0.5566</v>
+        <v>0.8478</v>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (4.4%)</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>8 (5.1%)</t>
         </is>
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>4 (2.1%)</t>
         </is>
       </c>
       <c r="J177">
-        <v>0.2844</v>
+        <v>0.3387</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>2 (2.8%)</t>
         </is>
       </c>
       <c r="L177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (10.2%)</t>
         </is>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>6 (4.4%)</t>
         </is>
       </c>
       <c r="N177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (1.5%)</t>
         </is>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>4.5 (2.5–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (1.9%)</t>
         </is>
       </c>
       <c r="Q177">
-        <v>0.0193</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (6.1%)</t>
         </is>
       </c>
       <c r="T177" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (3.4%)</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>2 (2.1%)</t>
         </is>
       </c>
       <c r="W177">
-        <v>0.1165</v>
+        <v>0.068</v>
       </c>
       <c r="X177" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="Y177" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>11 (3.7%)</t>
         </is>
       </c>
       <c r="AA177" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (2.1%)</t>
         </is>
       </c>
       <c r="AC177">
-        <v>0.1564</v>
+        <v>0.9553</v>
       </c>
       <c r="AD177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (3.7%)</t>
         </is>
       </c>
       <c r="AE177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (3.2%)</t>
         </is>
       </c>
       <c r="AF177" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (4.3%)</t>
         </is>
       </c>
       <c r="AG177">
-        <v>0.6373</v>
+        <v>0.7902</v>
       </c>
       <c r="AH177" t="inlineStr">
         <is>
@@ -28667,146 +28692,156 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_robo</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de robo o atraco</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Costos altos</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>23 (10.8%)</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>23 (10.4%)</t>
         </is>
       </c>
       <c r="F178">
-        <v>0.2782</v>
+        <v>0.8478</v>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>10 (11.1%)</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>17 (10.9%)</t>
         </is>
       </c>
       <c r="I178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>19 (10.2%)</t>
         </is>
       </c>
       <c r="J178">
-        <v>0.0973</v>
+        <v>0.3387</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>14 (19.4%)</t>
         </is>
       </c>
       <c r="L178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (4.1%)</t>
         </is>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (10.3%)</t>
         </is>
       </c>
       <c r="N178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>8 (12.1%)</t>
         </is>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>2 (28.6%)</t>
         </is>
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (5.8%)</t>
         </is>
       </c>
       <c r="Q178">
-        <v>0.796</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>5.0 (3.8–5.0)</t>
+          <t>10 (12.3%)</t>
         </is>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>21 (10.7%)</t>
+        </is>
+      </c>
+      <c r="T178" t="inlineStr">
+        <is>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>8 (13.8%)</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (7.2%)</t>
         </is>
       </c>
       <c r="W178">
-        <v>0.8993</v>
+        <v>0.068</v>
       </c>
       <c r="X178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>8 (14.8%)</t>
         </is>
       </c>
       <c r="Y178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="Z178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>30 (10.0%)</t>
         </is>
       </c>
       <c r="AA178" t="inlineStr">
         <is>
-          <t>3.5 (3.0–4.2)</t>
+          <t>3 (23.1%)</t>
         </is>
       </c>
       <c r="AB178" t="inlineStr">
         <is>
-          <t>5.0 (4.5–5.0)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="AC178">
-        <v>0.0285</v>
+        <v>0.9553</v>
       </c>
       <c r="AD178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (8.8%)</t>
         </is>
       </c>
       <c r="AE178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (9.0%)</t>
         </is>
       </c>
       <c r="AF178" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>20 (14.2%)</t>
         </is>
       </c>
       <c r="AG178">
-        <v>0.1589</v>
+        <v>0.7902</v>
       </c>
       <c r="AH178" t="inlineStr">
         <is>
@@ -28817,146 +28852,156 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>p28_importancia_riesgo_acoso</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de acoso</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Falta de información</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>16 (7.5%)</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>16 (7.2%)</t>
         </is>
       </c>
       <c r="F179">
-        <v>0.0119</v>
+        <v>0.8478</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>6 (6.7%)</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>15 (9.6%)</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>11 (5.9%)</t>
         </is>
       </c>
       <c r="J179">
-        <v>0.1116</v>
+        <v>0.3387</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (4.2%)</t>
         </is>
       </c>
       <c r="L179" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>9 (18.4%)</t>
         </is>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>9 (6.6%)</t>
         </is>
       </c>
       <c r="N179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>11 (10.7%)</t>
         </is>
       </c>
       <c r="Q179">
-        <v>0.6786</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>8 (9.9%)</t>
         </is>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (7.1%)</t>
+        </is>
+      </c>
+      <c r="T179" t="inlineStr">
+        <is>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>3 (5.2%)</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>5.0 (3.5–5.0)</t>
+          <t>7 (7.2%)</t>
         </is>
       </c>
       <c r="W179">
-        <v>0.2525</v>
+        <v>0.068</v>
       </c>
       <c r="X179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (9.3%)</t>
         </is>
       </c>
       <c r="Y179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="Z179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>20 (6.6%)</t>
         </is>
       </c>
       <c r="AA179" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB179" t="inlineStr">
         <is>
-          <t>5.0 (5.0–5.0)</t>
+          <t>4 (8.3%)</t>
         </is>
       </c>
       <c r="AC179">
-        <v>0.3404</v>
+        <v>0.9553</v>
       </c>
       <c r="AD179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (8.8%)</t>
         </is>
       </c>
       <c r="AE179" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (7.7%)</t>
         </is>
       </c>
       <c r="AF179" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>8 (5.7%)</t>
         </is>
       </c>
       <c r="AG179">
-        <v>0.2241</v>
+        <v>0.7902</v>
       </c>
       <c r="AH179" t="inlineStr">
         <is>
@@ -28967,146 +29012,156 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>p28_importancia_discriminacion</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Importancia del riesgo de discriminación</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Falta de infraestructura</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>49 (23.1%)</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>41 (18.6%)</t>
         </is>
       </c>
       <c r="F180">
-        <v>0.09030000000000001</v>
+        <v>0.8478</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>25 (27.8%)</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>23 (14.7%)</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>42 (22.5%)</t>
         </is>
       </c>
       <c r="J180">
-        <v>0.5760999999999999</v>
+        <v>0.3387</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>18 (25.0%)</t>
         </is>
       </c>
       <c r="L180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>30 (22.1%)</t>
         </is>
       </c>
       <c r="N180" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>16 (24.2%)</t>
         </is>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>1 (14.3%)</t>
         </is>
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>19 (18.4%)</t>
         </is>
       </c>
       <c r="Q180">
-        <v>0.606</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>18 (22.2%)</t>
         </is>
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>32 (16.3%)</t>
+        </is>
+      </c>
+      <c r="T180" t="inlineStr">
+        <is>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>3.5 (3.0–5.0)</t>
+          <t>18 (31.0%)</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>5.0 (3.5–5.0)</t>
+          <t>22 (22.7%)</t>
         </is>
       </c>
       <c r="W180">
-        <v>0.0838</v>
+        <v>0.068</v>
       </c>
       <c r="X180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>10 (18.5%)</t>
         </is>
       </c>
       <c r="Y180" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>3 (17.6%)</t>
         </is>
       </c>
       <c r="Z180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>67 (22.3%)</t>
         </is>
       </c>
       <c r="AA180" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.5)</t>
+          <t>2 (15.4%)</t>
         </is>
       </c>
       <c r="AB180" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>8 (16.7%)</t>
         </is>
       </c>
       <c r="AC180">
-        <v>0.1601</v>
+        <v>0.9553</v>
       </c>
       <c r="AD180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>24 (17.6%)</t>
         </is>
       </c>
       <c r="AE180" t="inlineStr">
         <is>
-          <t>5.0 (3.8–5.0)</t>
+          <t>36 (23.1%)</t>
         </is>
       </c>
       <c r="AF180" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>30 (21.3%)</t>
         </is>
       </c>
       <c r="AG180">
-        <v>0.3195</v>
+        <v>0.7902</v>
       </c>
       <c r="AH180" t="inlineStr">
         <is>
@@ -29117,146 +29172,156 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>p28_importancia_emisiones</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Importancia del nivel de emisiones</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Inseguridad / violencia</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>98 (46.2%)</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>114 (51.6%)</t>
         </is>
       </c>
       <c r="F181">
-        <v>0.0054</v>
+        <v>0.8478</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>36 (40.0%)</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>80 (51.3%)</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>96 (51.3%)</t>
         </is>
       </c>
       <c r="J181">
-        <v>0.6985</v>
+        <v>0.3387</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>31 (43.1%)</t>
         </is>
       </c>
       <c r="L181" t="inlineStr">
         <is>
-          <t>5.0 (3.2–5.0)</t>
+          <t>21 (42.9%)</t>
         </is>
       </c>
       <c r="M181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>63 (46.3%)</t>
         </is>
       </c>
       <c r="N181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>35 (53.0%)</t>
         </is>
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>5.0 (3.5–5.0)</t>
+          <t>4 (57.1%)</t>
         </is>
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>58 (56.3%)</t>
         </is>
       </c>
       <c r="Q181">
-        <v>0.1526</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>40 (49.4%)</t>
         </is>
       </c>
       <c r="S181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>103 (52.6%)</t>
+        </is>
+      </c>
+      <c r="T181" t="inlineStr">
+        <is>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="U181" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>22 (37.9%)</t>
         </is>
       </c>
       <c r="V181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>47 (48.5%)</t>
         </is>
       </c>
       <c r="W181">
-        <v>0.1542</v>
+        <v>0.068</v>
       </c>
       <c r="X181" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>25 (46.3%)</t>
         </is>
       </c>
       <c r="Y181" t="inlineStr">
         <is>
-          <t>5.0 (4.5–5.0)</t>
+          <t>10 (58.8%)</t>
         </is>
       </c>
       <c r="Z181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>147 (48.8%)</t>
         </is>
       </c>
       <c r="AA181" t="inlineStr">
         <is>
-          <t>3.0 (3.0–4.2)</t>
+          <t>5 (38.5%)</t>
         </is>
       </c>
       <c r="AB181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>25 (52.1%)</t>
         </is>
       </c>
       <c r="AC181">
-        <v>0.0259</v>
+        <v>0.9553</v>
       </c>
       <c r="AD181" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>68 (50.0%)</t>
         </is>
       </c>
       <c r="AE181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>77 (49.4%)</t>
         </is>
       </c>
       <c r="AF181" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>67 (47.5%)</t>
         </is>
       </c>
       <c r="AG181">
-        <v>0.2916</v>
+        <v>0.7902</v>
       </c>
       <c r="AH181" t="inlineStr">
         <is>
@@ -29267,151 +29332,156 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>p28_importancia_siniestralidad</t>
+          <t>p35_razon_agregada</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Importancia de la siniestralidad vial</t>
+          <t>Razón por la cual no hay más personas usando modos sostenibles (agregada)</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Otro motivo</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>19 (9.0%)</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>18 (8.1%)</t>
         </is>
       </c>
       <c r="F182">
-        <v>0.0042</v>
+        <v>0.8478</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>9 (10.0%)</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>13 (8.3%)</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>15 (8.0%)</t>
         </is>
       </c>
       <c r="J182">
-        <v>0.4431</v>
+        <v>0.3387</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>4 (5.6%)</t>
         </is>
       </c>
       <c r="L182" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>6 (12.2%)</t>
         </is>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>14 (10.3%)</t>
         </is>
       </c>
       <c r="N182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>6 (9.1%)</t>
         </is>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>4.5 (2.5–5.0)</t>
+          <t>0 (0.0%)</t>
         </is>
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>7 (6.8%)</t>
         </is>
       </c>
       <c r="Q182">
-        <v>0.2655</v>
+        <v>0.009599999999999999</v>
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>5 (6.2%)</t>
         </is>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>5.0 (3.5–5.0)</t>
+          <t>14 (7.1%)</t>
         </is>
       </c>
       <c r="T182" t="inlineStr">
         <is>
-          <t>3.0 (3.0–3.0)</t>
+          <t>1 (100.0%)</t>
         </is>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (8.6%)</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (12.4%)</t>
         </is>
       </c>
       <c r="W182">
-        <v>0.1634</v>
+        <v>0.068</v>
       </c>
       <c r="X182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>3 (5.6%)</t>
         </is>
       </c>
       <c r="Y182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>2 (11.8%)</t>
         </is>
       </c>
       <c r="Z182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>26 (8.6%)</t>
         </is>
       </c>
       <c r="AA182" t="inlineStr">
         <is>
-          <t>3.0 (3.0–5.0)</t>
+          <t>1 (7.7%)</t>
         </is>
       </c>
       <c r="AB182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>5 (10.4%)</t>
         </is>
       </c>
       <c r="AC182">
-        <v>0.3213</v>
+        <v>0.9553</v>
       </c>
       <c r="AD182" t="inlineStr">
         <is>
-          <t>5.0 (3.0–5.0)</t>
+          <t>15 (11.0%)</t>
         </is>
       </c>
       <c r="AE182" t="inlineStr">
         <is>
-          <t>5.0 (4.0–5.0)</t>
+          <t>12 (7.7%)</t>
         </is>
       </c>
       <c r="AF182" t="inlineStr">
         <is>
-          <t>5.0 (3.5–5.0)</t>
+          <t>10 (7.1%)</t>
         </is>
       </c>
       <c r="AG182">
-        <v>0.1262</v>
+        <v>0.7902</v>
       </c>
       <c r="AH182" t="inlineStr">
         <is>
@@ -29422,13 +29492,151 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>p32_contaminacion_likert</t>
+          <t>p28_importancia_costo_compra</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nivel percibido de contaminación (escala Likert)</t>
-        </is>
+          <t>Importancia del costo de compra</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F183">
+        <v>0.1164</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J183">
+        <v>0.0028</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>5.0 (2.5–5.0)</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>5.0 (3.5–5.0)</t>
+        </is>
+      </c>
+      <c r="Q183">
+        <v>0.6711</v>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T183" t="inlineStr">
+        <is>
+          <t>2.0 (2.0–2.0)</t>
+        </is>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W183">
+        <v>0.0187</v>
+      </c>
+      <c r="X183" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Z183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA183" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AB183" t="inlineStr">
+        <is>
+          <t>5.0 (3.8–5.0)</t>
+        </is>
+      </c>
+      <c r="AC183">
+        <v>0.0086</v>
+      </c>
+      <c r="AD183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AF183" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AG183">
+        <v>0.2936</v>
       </c>
       <c r="AH183" t="inlineStr">
         <is>
@@ -29439,151 +29647,151 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>p36_influencia_amigos</t>
+          <t>p28_importancia_costo_uso</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+          <t>Importancia del costo de uso u operación</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="F184">
-        <v>0.5765</v>
+        <v>0.5239</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–3.5)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="J184">
-        <v>0.5451</v>
+        <v>0.2688</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–3.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="L184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–3.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="N184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>4.0 (2.2–5.0)</t>
         </is>
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–5.0)</t>
+          <t>3.0 (1.5–3.5)</t>
         </is>
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="Q184">
-        <v>0.9062</v>
+        <v>0.0033</v>
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>2.0 (1.0–5.0)</t>
+          <t>3.0 (2.0–5.0)</t>
         </is>
       </c>
       <c r="S184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–3.2)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="T184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–1.0)</t>
+          <t>4.0 (4.0–4.0)</t>
         </is>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–2.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="W184">
-        <v>0.0471</v>
+        <v>0.0016</v>
       </c>
       <c r="X184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–3.0)</t>
+          <t>4.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="Y184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–3.0)</t>
+          <t>5.0 (4.0–5.0)</t>
         </is>
       </c>
       <c r="Z184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="AA184" t="inlineStr">
         <is>
-          <t>2.0 (1.0–4.0)</t>
+          <t>3.0 (2.0–3.0)</t>
         </is>
       </c>
       <c r="AB184" t="inlineStr">
         <is>
-          <t>2.0 (1.0–4.2)</t>
+          <t>5.0 (3.8–5.0)</t>
         </is>
       </c>
       <c r="AC184">
-        <v>0.3742</v>
+        <v>0.0301</v>
       </c>
       <c r="AD184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–3.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="AE184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="AF184" t="inlineStr">
         <is>
-          <t>1.0 (1.0–4.0)</t>
+          <t>5.0 (3.0–5.0)</t>
         </is>
       </c>
       <c r="AG184">
-        <v>0.2929</v>
+        <v>0.2349</v>
       </c>
       <c r="AH184" t="inlineStr">
         <is>
@@ -29594,153 +29802,1548 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
+          <t>p28_importancia_comodidad</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Importancia de la comodidad</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F185">
+        <v>0.6850000000000001</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>5.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J185">
+        <v>0.6066</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>5.0 (4.8–5.0)</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>5.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Q185">
+        <v>0.0394</v>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
+          <t>5.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T185" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–1.0)</t>
+        </is>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W185">
+        <v>0.002</v>
+      </c>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Z185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA185" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AB185" t="inlineStr">
+        <is>
+          <t>5.0 (3.8–5.0)</t>
+        </is>
+      </c>
+      <c r="AC185">
+        <v>0.2381</v>
+      </c>
+      <c r="AD185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AF185" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AG185">
+        <v>0.3479</v>
+      </c>
+      <c r="AH185" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>p28_importancia_tiempo</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Importancia del tiempo de viaje</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F186">
+        <v>0.3923</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J186">
+        <v>0.6958</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Q186">
+        <v>0.0252</v>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T186" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>5.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W186">
+        <v>0.0091</v>
+      </c>
+      <c r="X186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y186" t="inlineStr">
+        <is>
+          <t>5.0 (5.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Z186" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AB186" t="inlineStr">
+        <is>
+          <t>5.0 (3.8–5.0)</t>
+        </is>
+      </c>
+      <c r="AC186">
+        <v>0.0542</v>
+      </c>
+      <c r="AD186" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE186" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AF186" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AG186">
+        <v>0.4428</v>
+      </c>
+      <c r="AH186" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_robo</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de robo o atraco</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F187">
+        <v>0.1584</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J187">
+        <v>0.0178</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Q187">
+        <v>0.8066</v>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T187" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–1.0)</t>
+        </is>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>5.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W187">
+        <v>0.0002</v>
+      </c>
+      <c r="X187" t="inlineStr">
+        <is>
+          <t>5.0 (2.2–5.0)</t>
+        </is>
+      </c>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Z187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA187" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AB187" t="inlineStr">
+        <is>
+          <t>5.0 (3.8–5.0)</t>
+        </is>
+      </c>
+      <c r="AC187">
+        <v>0.1228</v>
+      </c>
+      <c r="AD187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AF187" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AG187">
+        <v>0.3042</v>
+      </c>
+      <c r="AH187" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>p28_importancia_riesgo_acoso</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de acoso</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F188">
+        <v>0.0031</v>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>5.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J188">
+        <v>0.1679</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>5.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>5.0 (1.5–5.0)</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Q188">
+        <v>0.8411</v>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T188" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–1.0)</t>
+        </is>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W188">
+        <v>0.0048</v>
+      </c>
+      <c r="X188" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y188" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Z188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA188" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AB188" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AC188">
+        <v>0.08699999999999999</v>
+      </c>
+      <c r="AD188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE188" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AF188" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AG188">
+        <v>0.2351</v>
+      </c>
+      <c r="AH188" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>p28_importancia_discriminacion</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Importancia del riesgo de discriminación</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F189">
+        <v>0.0003</v>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J189">
+        <v>0.9726</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>4.0 (1.5–5.0)</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Q189">
+        <v>0.53</v>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>4.0 (1.8–5.0)</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–1.0)</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W189">
+        <v>0.0941</v>
+      </c>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y189" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Z189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA189" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AB189" t="inlineStr">
+        <is>
+          <t>4.5 (1.8–5.0)</t>
+        </is>
+      </c>
+      <c r="AC189">
+        <v>0.6441</v>
+      </c>
+      <c r="AD189" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE189" t="inlineStr">
+        <is>
+          <t>4.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AF189" t="inlineStr">
+        <is>
+          <t>3.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AG189">
+        <v>0.1147</v>
+      </c>
+      <c r="AH189" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>p28_importancia_emisiones</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Importancia del nivel de emisiones</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F190">
+        <v>0.0401</v>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>4.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J190">
+        <v>0.8797</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>5.0 (2.5–5.0)</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Q190">
+        <v>0.8943</v>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–1.0)</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W190">
+        <v>0.0506</v>
+      </c>
+      <c r="X190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Z190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA190" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AB190" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AC190">
+        <v>0.3248</v>
+      </c>
+      <c r="AD190" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AF190" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AG190">
+        <v>0.4453</v>
+      </c>
+      <c r="AH190" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>p28_importancia_siniestralidad</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Importancia de la siniestralidad vial</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="F191">
+        <v>0.0462</v>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="I191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="J191">
+        <v>0.5093</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>4.5 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>5.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Q191">
+        <v>0.9493</v>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>4.0 (2.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–3.0)</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>5.0 (3.2–5.0)</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="W191">
+        <v>0.0452</v>
+      </c>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Y191" t="inlineStr">
+        <is>
+          <t>5.0 (4.0–5.0)</t>
+        </is>
+      </c>
+      <c r="Z191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AA191" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AB191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AC191">
+        <v>0.3049</v>
+      </c>
+      <c r="AD191" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AE191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AF191" t="inlineStr">
+        <is>
+          <t>5.0 (3.0–5.0)</t>
+        </is>
+      </c>
+      <c r="AG191">
+        <v>0.157</v>
+      </c>
+      <c r="AH191" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>p32_contaminacion_likert</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Nivel percibido de contaminación (escala Likert)</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F192">
+        <v>0.0183</v>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="I192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="J192">
+        <v>0.5896</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>4.0 (2.5–5.0)</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="Q192">
+        <v>0</v>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–1.0)</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="W192">
+        <v>0.0688</v>
+      </c>
+      <c r="X192" t="inlineStr">
+        <is>
+          <t>3.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="Z192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AA192" t="inlineStr">
+        <is>
+          <t>4.0 (3.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AB192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AC192">
+        <v>0.4502</v>
+      </c>
+      <c r="AD192" t="inlineStr">
+        <is>
+          <t>3.0 (2.8–4.0)</t>
+        </is>
+      </c>
+      <c r="AE192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AF192" t="inlineStr">
+        <is>
+          <t>3.0 (2.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AG192">
+        <v>0.5067</v>
+      </c>
+      <c r="AH192" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>p36_influencia_amigos</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Influencia de los amigos en la elección del transporte (Likert 1-5)</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="F193">
+        <v>0.5765</v>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="I193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.5)</t>
+        </is>
+      </c>
+      <c r="J193">
+        <v>0.5451</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="N193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="Q193">
+        <v>0.9062</v>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–5.0)</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.2)</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–1.0)</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–2.0)</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="W193">
+        <v>0.0471</v>
+      </c>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="Z193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AA193" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AB193" t="inlineStr">
+        <is>
+          <t>2.0 (1.0–4.2)</t>
+        </is>
+      </c>
+      <c r="AC193">
+        <v>0.3742</v>
+      </c>
+      <c r="AD193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–3.0)</t>
+        </is>
+      </c>
+      <c r="AE193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AF193" t="inlineStr">
+        <is>
+          <t>1.0 (1.0–4.0)</t>
+        </is>
+      </c>
+      <c r="AG193">
+        <v>0.2929</v>
+      </c>
+      <c r="AH193" t="inlineStr">
+        <is>
+          <t>Módulo 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
           <t>p37_influencia_familia</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B194" t="inlineStr">
         <is>
           <t>Influencia de la familia en la elección del transporte (Likert 1-5)</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>2.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="E194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="F185">
+      <c r="F194">
         <v>0.3342</v>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>1.5 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="I185" t="inlineStr">
+      <c r="I194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="J185">
+      <c r="J194">
         <v>0.4949</v>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="K194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="L185" t="inlineStr">
+      <c r="L194" t="inlineStr">
         <is>
           <t>1.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="M185" t="inlineStr">
+      <c r="M194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="N185" t="inlineStr">
+      <c r="N194" t="inlineStr">
         <is>
           <t>2.5 (1.0–4.8)</t>
         </is>
       </c>
-      <c r="O185" t="inlineStr">
+      <c r="O194" t="inlineStr">
         <is>
           <t>5.0 (4.5–5.0)</t>
         </is>
       </c>
-      <c r="P185" t="inlineStr">
+      <c r="P194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="Q185">
+      <c r="Q194">
         <v>0.3029</v>
       </c>
-      <c r="R185" t="inlineStr">
+      <c r="R194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="S185" t="inlineStr">
+      <c r="S194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="T185" t="inlineStr">
+      <c r="T194" t="inlineStr">
         <is>
           <t>1.0 (1.0–1.0)</t>
         </is>
       </c>
-      <c r="U185" t="inlineStr">
+      <c r="U194" t="inlineStr">
         <is>
           <t>2.0 (1.0–4.0)</t>
         </is>
       </c>
-      <c r="V185" t="inlineStr">
+      <c r="V194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="W185">
+      <c r="W194">
         <v>0.4188</v>
       </c>
-      <c r="X185" t="inlineStr">
+      <c r="X194" t="inlineStr">
         <is>
           <t>2.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="Y185" t="inlineStr">
+      <c r="Y194" t="inlineStr">
         <is>
           <t>3.0 (1.0–4.0)</t>
         </is>
       </c>
-      <c r="Z185" t="inlineStr">
+      <c r="Z194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="AA185" t="inlineStr">
+      <c r="AA194" t="inlineStr">
         <is>
           <t>2.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="AB185" t="inlineStr">
+      <c r="AB194" t="inlineStr">
         <is>
           <t>3.5 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="AC185">
+      <c r="AC194">
         <v>0.8741</v>
       </c>
-      <c r="AD185" t="inlineStr">
+      <c r="AD194" t="inlineStr">
         <is>
           <t>3.0 (1.0–4.0)</t>
         </is>
       </c>
-      <c r="AE185" t="inlineStr">
+      <c r="AE194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="AF185" t="inlineStr">
+      <c r="AF194" t="inlineStr">
         <is>
           <t>3.0 (1.0–5.0)</t>
         </is>
       </c>
-      <c r="AG185">
+      <c r="AG194">
         <v>0.3603</v>
       </c>
-      <c r="AH185" t="inlineStr">
+      <c r="AH194" t="inlineStr">
         <is>
           <t>Módulo 3</t>
         </is>
